--- a/twitter_data/retweeted_users.xlsx
+++ b/twitter_data/retweeted_users.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25306"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="25360" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Retweeted User Info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -358,8 +363,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +402,548 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retweeted User Info'!$D$2:$D$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>441283.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>441283.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1886.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118896.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>618963.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>618963.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>618963.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2961.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2961.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>293115.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12074.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12074.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23327.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17662.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9144.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40239.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39958.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4302.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3155.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4297.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>662.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71141.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6989.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51366.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10371.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10371.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10371.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>735.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11421.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2795.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2795.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9137.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9137.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>588251.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>588251.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>588251.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78860.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>772.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17941.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26443.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26443.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3378.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>23219.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7525.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6389.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6389.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>31173.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>31173.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>23385.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>23385.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8103.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1847.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>125580.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>433.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>634.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>265.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retweeted User Info'!$G$2:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1739.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1107.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2127331896"/>
+        <c:axId val="-2127335064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2127331896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Followers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2127335064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2127335064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Retweet Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2127331896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -683,12 +1230,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="6" max="6" width="73.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -727,7 +1282,7 @@
         <v>441283</v>
       </c>
       <c r="E2">
-        <v>7.04773404239536e+17</v>
+        <v>7.04773404239536E+17</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -737,8 +1292,11 @@
       </c>
     </row>
     <row r="3" spans="1:7">
+      <c r="D3">
+        <v>441283</v>
+      </c>
       <c r="E3">
-        <v>6.9718729549826e+17</v>
+        <v>6.9718729549825997E+17</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -761,7 +1319,7 @@
         <v>1886</v>
       </c>
       <c r="E4">
-        <v>7.0458826010683e+17</v>
+        <v>7.0458826010682995E+17</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -784,7 +1342,7 @@
         <v>118896</v>
       </c>
       <c r="E5">
-        <v>6.96794596924232e+17</v>
+        <v>6.9679459692423194E+17</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -807,7 +1365,7 @@
         <v>618963</v>
       </c>
       <c r="E6">
-        <v>6.99669725899583e+17</v>
+        <v>6.9966972589958298E+17</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -817,8 +1375,11 @@
       </c>
     </row>
     <row r="7" spans="1:7">
+      <c r="D7">
+        <v>618963</v>
+      </c>
       <c r="E7">
-        <v>6.96841016716952e+17</v>
+        <v>6.9684101671695206E+17</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -828,8 +1389,11 @@
       </c>
     </row>
     <row r="8" spans="1:7">
+      <c r="D8">
+        <v>618963</v>
+      </c>
       <c r="E8">
-        <v>6.99362603898946e+17</v>
+        <v>6.9936260389894605E+17</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -852,7 +1416,7 @@
         <v>2961</v>
       </c>
       <c r="E9">
-        <v>6.97105811877794e+17</v>
+        <v>6.9710581187779405E+17</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -862,8 +1426,11 @@
       </c>
     </row>
     <row r="10" spans="1:7">
+      <c r="D10">
+        <v>2961</v>
+      </c>
       <c r="E10">
-        <v>6.9674335117396e+17</v>
+        <v>6.9674335117395994E+17</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -886,7 +1453,7 @@
         <v>293115</v>
       </c>
       <c r="E11">
-        <v>6.98244178262634e+17</v>
+        <v>6.9824417826263398E+17</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -909,7 +1476,7 @@
         <v>12074</v>
       </c>
       <c r="E12">
-        <v>6.97088765194592e+17</v>
+        <v>6.97088765194592E+17</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -919,8 +1486,11 @@
       </c>
     </row>
     <row r="13" spans="1:7">
+      <c r="D13">
+        <v>12074</v>
+      </c>
       <c r="E13">
-        <v>6.96535915641094e+17</v>
+        <v>6.9653591564109402E+17</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
@@ -943,7 +1513,7 @@
         <v>315</v>
       </c>
       <c r="E14">
-        <v>6.98382348576903e+17</v>
+        <v>6.9838234857690304E+17</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
@@ -966,7 +1536,7 @@
         <v>23327</v>
       </c>
       <c r="E15">
-        <v>6.96630066806178e+17</v>
+        <v>6.9663006680617805E+17</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
@@ -989,7 +1559,7 @@
         <v>17662</v>
       </c>
       <c r="E16">
-        <v>6.97143158400877e+17</v>
+        <v>6.9714315840087706E+17</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
@@ -1012,7 +1582,7 @@
         <v>9144</v>
       </c>
       <c r="E17">
-        <v>6.97849556508275e+17</v>
+        <v>6.9784955650827494E+17</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -1035,7 +1605,7 @@
         <v>40239</v>
       </c>
       <c r="E18">
-        <v>6.99302712681169e+17</v>
+        <v>6.9930271268116902E+17</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
@@ -1058,7 +1628,7 @@
         <v>39958</v>
       </c>
       <c r="E19">
-        <v>6.95798517814706e+17</v>
+        <v>6.9579851781470605E+17</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
@@ -1081,7 +1651,7 @@
         <v>4302</v>
       </c>
       <c r="E20">
-        <v>7.18548101355717e+17</v>
+        <v>7.1854810135571699E+17</v>
       </c>
       <c r="F20" t="s">
         <v>40</v>
@@ -1104,7 +1674,7 @@
         <v>267</v>
       </c>
       <c r="E21">
-        <v>6.97191823597445e+17</v>
+        <v>6.9719182359744499E+17</v>
       </c>
       <c r="F21" t="s">
         <v>42</v>
@@ -1127,7 +1697,7 @@
         <v>3155</v>
       </c>
       <c r="E22">
-        <v>6.96535601667973e+17</v>
+        <v>6.9653560166797299E+17</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
@@ -1150,7 +1720,7 @@
         <v>4297</v>
       </c>
       <c r="E23">
-        <v>6.97381501306958e+17</v>
+        <v>6.9738150130695795E+17</v>
       </c>
       <c r="F23" t="s">
         <v>46</v>
@@ -1173,7 +1743,7 @@
         <v>662</v>
       </c>
       <c r="E24">
-        <v>6.99080686385373e+17</v>
+        <v>6.9908068638537306E+17</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -1196,7 +1766,7 @@
         <v>71141</v>
       </c>
       <c r="E25">
-        <v>7.04416900931924e+17</v>
+        <v>7.0441690093192397E+17</v>
       </c>
       <c r="F25" t="s">
         <v>50</v>
@@ -1219,7 +1789,7 @@
         <v>6989</v>
       </c>
       <c r="E26">
-        <v>6.97143684731691e+17</v>
+        <v>6.9714368473169101E+17</v>
       </c>
       <c r="F26" t="s">
         <v>52</v>
@@ -1242,7 +1812,7 @@
         <v>51366</v>
       </c>
       <c r="E27">
-        <v>6.99746133631959e+17</v>
+        <v>6.9974613363195904E+17</v>
       </c>
       <c r="F27" t="s">
         <v>54</v>
@@ -1265,7 +1835,7 @@
         <v>10371</v>
       </c>
       <c r="E28">
-        <v>6.95642212181352e+17</v>
+        <v>6.9564221218135194E+17</v>
       </c>
       <c r="F28" t="s">
         <v>56</v>
@@ -1275,8 +1845,11 @@
       </c>
     </row>
     <row r="29" spans="1:7">
+      <c r="D29">
+        <v>10371</v>
+      </c>
       <c r="E29">
-        <v>6.97863589210751e+17</v>
+        <v>6.9786358921075098E+17</v>
       </c>
       <c r="F29" t="s">
         <v>57</v>
@@ -1286,8 +1859,11 @@
       </c>
     </row>
     <row r="30" spans="1:7">
+      <c r="D30">
+        <v>10371</v>
+      </c>
       <c r="E30">
-        <v>6.97863589210751e+17</v>
+        <v>6.9786358921075098E+17</v>
       </c>
       <c r="F30" t="s">
         <v>57</v>
@@ -1310,7 +1886,7 @@
         <v>735</v>
       </c>
       <c r="E31">
-        <v>6.9724724155621e+17</v>
+        <v>6.9724724155621005E+17</v>
       </c>
       <c r="F31" t="s">
         <v>59</v>
@@ -1333,7 +1909,7 @@
         <v>11421</v>
       </c>
       <c r="E32">
-        <v>6.96802543888785e+17</v>
+        <v>6.9680254388878502E+17</v>
       </c>
       <c r="F32" t="s">
         <v>61</v>
@@ -1356,7 +1932,7 @@
         <v>2795</v>
       </c>
       <c r="E33">
-        <v>6.96624522728907e+17</v>
+        <v>6.9662452272890701E+17</v>
       </c>
       <c r="F33" t="s">
         <v>63</v>
@@ -1366,8 +1942,11 @@
       </c>
     </row>
     <row r="34" spans="1:7">
+      <c r="D34">
+        <v>2795</v>
+      </c>
       <c r="E34">
-        <v>6.96360413412397e+17</v>
+        <v>6.9636041341239706E+17</v>
       </c>
       <c r="F34" t="s">
         <v>64</v>
@@ -1390,7 +1969,7 @@
         <v>9137</v>
       </c>
       <c r="E35">
-        <v>6.9908285879579e+17</v>
+        <v>6.9908285879578995E+17</v>
       </c>
       <c r="F35" t="s">
         <v>66</v>
@@ -1400,8 +1979,11 @@
       </c>
     </row>
     <row r="36" spans="1:7">
+      <c r="D36">
+        <v>9137</v>
+      </c>
       <c r="E36">
-        <v>6.9977220754799e+17</v>
+        <v>6.9977220754799002E+17</v>
       </c>
       <c r="F36" t="s">
         <v>67</v>
@@ -1424,7 +2006,7 @@
         <v>588251</v>
       </c>
       <c r="E37">
-        <v>6.98340907574231e+17</v>
+        <v>6.9834090757423104E+17</v>
       </c>
       <c r="F37" t="s">
         <v>70</v>
@@ -1434,8 +2016,11 @@
       </c>
     </row>
     <row r="38" spans="1:7">
+      <c r="D38">
+        <v>588251</v>
+      </c>
       <c r="E38">
-        <v>6.98330779261276e+17</v>
+        <v>6.9833077926127603E+17</v>
       </c>
       <c r="F38" t="s">
         <v>71</v>
@@ -1445,8 +2030,11 @@
       </c>
     </row>
     <row r="39" spans="1:7">
+      <c r="D39">
+        <v>588251</v>
+      </c>
       <c r="E39">
-        <v>6.98330779261276e+17</v>
+        <v>6.9833077926127603E+17</v>
       </c>
       <c r="F39" t="s">
         <v>71</v>
@@ -1469,7 +2057,7 @@
         <v>78860</v>
       </c>
       <c r="E40">
-        <v>6.9680154308189e+17</v>
+        <v>6.9680154308189005E+17</v>
       </c>
       <c r="F40" t="s">
         <v>73</v>
@@ -1492,7 +2080,7 @@
         <v>772</v>
       </c>
       <c r="E41">
-        <v>6.97516275141104e+17</v>
+        <v>6.97516275141104E+17</v>
       </c>
       <c r="F41" t="s">
         <v>75</v>
@@ -1515,7 +2103,7 @@
         <v>17941</v>
       </c>
       <c r="E42">
-        <v>6.96527841995923e+17</v>
+        <v>6.9652784199592294E+17</v>
       </c>
       <c r="F42" t="s">
         <v>77</v>
@@ -1538,7 +2126,7 @@
         <v>26443</v>
       </c>
       <c r="E43">
-        <v>6.99700313431925e+17</v>
+        <v>6.9970031343192499E+17</v>
       </c>
       <c r="F43" t="s">
         <v>79</v>
@@ -1548,8 +2136,11 @@
       </c>
     </row>
     <row r="44" spans="1:7">
+      <c r="D44">
+        <v>26443</v>
+      </c>
       <c r="E44">
-        <v>6.99342946806735e+17</v>
+        <v>6.9934294680673498E+17</v>
       </c>
       <c r="F44" t="s">
         <v>80</v>
@@ -1572,7 +2163,7 @@
         <v>3378</v>
       </c>
       <c r="E45">
-        <v>6.98566623335211e+17</v>
+        <v>6.9856662333521101E+17</v>
       </c>
       <c r="F45" t="s">
         <v>82</v>
@@ -1595,7 +2186,7 @@
         <v>23219</v>
       </c>
       <c r="E46">
-        <v>6.9930443424596e+17</v>
+        <v>6.9930443424595994E+17</v>
       </c>
       <c r="F46" t="s">
         <v>84</v>
@@ -1618,7 +2209,7 @@
         <v>43</v>
       </c>
       <c r="E47">
-        <v>6.99627578416456e+17</v>
+        <v>6.9962757841645594E+17</v>
       </c>
       <c r="F47" t="s">
         <v>86</v>
@@ -1641,7 +2232,7 @@
         <v>7525</v>
       </c>
       <c r="E48">
-        <v>7.0477371089748e+17</v>
+        <v>7.0477371089747994E+17</v>
       </c>
       <c r="F48" t="s">
         <v>88</v>
@@ -1664,7 +2255,7 @@
         <v>6389</v>
       </c>
       <c r="E49">
-        <v>7.18334674498666e+17</v>
+        <v>7.1833467449866598E+17</v>
       </c>
       <c r="F49" t="s">
         <v>91</v>
@@ -1677,8 +2268,11 @@
       <c r="A50">
         <v>51177440</v>
       </c>
+      <c r="D50">
+        <v>6389</v>
+      </c>
       <c r="E50">
-        <v>6.99766065245528e+17</v>
+        <v>6.9976606524552806E+17</v>
       </c>
       <c r="F50" t="s">
         <v>92</v>
@@ -1701,7 +2295,7 @@
         <v>31173</v>
       </c>
       <c r="E51">
-        <v>6.96759155294474e+17</v>
+        <v>6.9675915529447398E+17</v>
       </c>
       <c r="F51" t="s">
         <v>94</v>
@@ -1711,8 +2305,11 @@
       </c>
     </row>
     <row r="52" spans="1:7">
+      <c r="D52">
+        <v>31173</v>
+      </c>
       <c r="E52">
-        <v>6.99658004531016e+17</v>
+        <v>6.9965800453101594E+17</v>
       </c>
       <c r="F52" t="s">
         <v>95</v>
@@ -1735,7 +2332,7 @@
         <v>23385</v>
       </c>
       <c r="E53">
-        <v>6.97523716771557e+17</v>
+        <v>6.9752371677155699E+17</v>
       </c>
       <c r="F53" t="s">
         <v>97</v>
@@ -1745,8 +2342,11 @@
       </c>
     </row>
     <row r="54" spans="1:7">
+      <c r="D54">
+        <v>23385</v>
+      </c>
       <c r="E54">
-        <v>6.95637764117664e+17</v>
+        <v>6.95637764117664E+17</v>
       </c>
       <c r="F54" t="s">
         <v>98</v>
@@ -1769,7 +2369,7 @@
         <v>8103</v>
       </c>
       <c r="E55">
-        <v>6.96961325566665e+17</v>
+        <v>6.9696132556666496E+17</v>
       </c>
       <c r="F55" t="s">
         <v>100</v>
@@ -1792,7 +2392,7 @@
         <v>1847</v>
       </c>
       <c r="E56">
-        <v>6.98893650671981e+17</v>
+        <v>6.9889365067198106E+17</v>
       </c>
       <c r="F56" t="s">
         <v>102</v>
@@ -1815,7 +2415,7 @@
         <v>125580</v>
       </c>
       <c r="E57">
-        <v>6.9707825401711e+17</v>
+        <v>6.9707825401711002E+17</v>
       </c>
       <c r="F57" t="s">
         <v>104</v>
@@ -1838,7 +2438,7 @@
         <v>433</v>
       </c>
       <c r="E58">
-        <v>7.04712855535268e+17</v>
+        <v>7.0471285553526797E+17</v>
       </c>
       <c r="F58" t="s">
         <v>106</v>
@@ -1861,7 +2461,7 @@
         <v>2942</v>
       </c>
       <c r="E59">
-        <v>6.96417814274515e+17</v>
+        <v>6.9641781427451494E+17</v>
       </c>
       <c r="F59" t="s">
         <v>108</v>
@@ -1884,7 +2484,7 @@
         <v>634</v>
       </c>
       <c r="E60">
-        <v>6.9638881346417e+17</v>
+        <v>6.9638881346416998E+17</v>
       </c>
       <c r="F60" t="s">
         <v>110</v>
@@ -1907,7 +2507,7 @@
         <v>265</v>
       </c>
       <c r="E61">
-        <v>6.96145498483384e+17</v>
+        <v>6.9614549848338406E+17</v>
       </c>
       <c r="F61" t="s">
         <v>112</v>
@@ -1918,5 +2518,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/twitter_data/retweeted_users.xlsx
+++ b/twitter_data/retweeted_users.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="25360" windowHeight="15540"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15300"/>
   </bookViews>
   <sheets>
     <sheet name="Retweeted User Info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
   <si>
     <t>User ID</t>
   </si>
@@ -358,16 +358,44 @@
   </si>
   <si>
     <t xml:space="preserve">heres what a night inside las cannabis social club looks like  </t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>commercial_growers</t>
+  </si>
+  <si>
+    <t>non-profits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -390,13 +418,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -820,12 +876,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127331896"/>
-        <c:axId val="-2127335064"/>
+        <c:axId val="-2124980648"/>
+        <c:axId val="-2124649496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2127331896"/>
+        <c:axId val="-2124980648"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -854,13 +911,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127335064"/>
+        <c:crossAx val="-2124649496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127335064"/>
+        <c:axId val="-2124649496"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -889,13 +947,305 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127331896"/>
+        <c:crossAx val="-2124980648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Highly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Retweeted User Categories</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retweeted User Info'!$J$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Retweeted User Info'!$I$36:$I$39</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>individuals</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>interest_groups</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>service_providers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Retweeted User Info'!$J$36:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>User</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Category Distribution Over All Tweets</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retweeted User Info'!$J$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Retweeted User Info'!$I$59:$I$65</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>individuals</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>interest_groups</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>service_providers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>commercial_growers</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>news</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>non-profits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Retweeted User Info'!$J$59:$J$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2488.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -921,10 +1271,10 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -938,6 +1288,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1231,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
+      <selection activeCell="F9" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1276,7 +1686,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>441283</v>
@@ -1336,7 +1746,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>118896</v>
@@ -1918,7 +2328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>541076667</v>
       </c>
@@ -1941,7 +2351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:10">
       <c r="D34">
         <v>2795</v>
       </c>
@@ -1955,7 +2365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>1927092534</v>
       </c>
@@ -1977,8 +2387,14 @@
       <c r="G35">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="I35" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="D36">
         <v>9137</v>
       </c>
@@ -1991,8 +2407,15 @@
       <c r="G36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <f>COUNTIF(C2:C61,I36)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>270106571</v>
       </c>
@@ -2014,8 +2437,15 @@
       <c r="G37">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ref="J37:J39" si="0">COUNTIF(C3:C62,I37)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="D38">
         <v>588251</v>
       </c>
@@ -2028,8 +2458,15 @@
       <c r="G38">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="I38" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="D39">
         <v>588251</v>
       </c>
@@ -2042,8 +2479,15 @@
       <c r="G39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="I39" t="s">
+        <v>90</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>86527966</v>
       </c>
@@ -2065,8 +2509,14 @@
       <c r="G40">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="I40" t="s">
+        <v>114</v>
+      </c>
+      <c r="J40">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>293645013</v>
       </c>
@@ -2089,7 +2539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>803669304</v>
       </c>
@@ -2112,7 +2562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>3219100369</v>
       </c>
@@ -2135,7 +2585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:10">
       <c r="D44">
         <v>26443</v>
       </c>
@@ -2149,7 +2599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>4093545143</v>
       </c>
@@ -2172,7 +2622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>2898339167</v>
       </c>
@@ -2195,7 +2645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>4909245272</v>
       </c>
@@ -2218,7 +2668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>129956940</v>
       </c>
@@ -2241,7 +2691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>1347362516</v>
       </c>
@@ -2264,7 +2714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>51177440</v>
       </c>
@@ -2281,7 +2731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>2989669784</v>
       </c>
@@ -2304,7 +2754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:10">
       <c r="D52">
         <v>31173</v>
       </c>
@@ -2318,7 +2768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>784890702</v>
       </c>
@@ -2341,7 +2791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:10">
       <c r="D54">
         <v>23385</v>
       </c>
@@ -2355,7 +2805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>1314149166</v>
       </c>
@@ -2378,7 +2828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>4543648046</v>
       </c>
@@ -2401,7 +2851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>140710131</v>
       </c>
@@ -2424,7 +2874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>1126930310</v>
       </c>
@@ -2446,8 +2896,14 @@
       <c r="G58">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="I58" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>230341137</v>
       </c>
@@ -2469,8 +2925,14 @@
       <c r="G59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="I59" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>445246441</v>
       </c>
@@ -2492,8 +2954,14 @@
       <c r="G60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>3226602412</v>
       </c>
@@ -2514,6 +2982,44 @@
       </c>
       <c r="G61">
         <v>5</v>
+      </c>
+      <c r="I61" t="s">
+        <v>69</v>
+      </c>
+      <c r="J61">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+      <c r="J62">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="I63" t="s">
+        <v>115</v>
+      </c>
+      <c r="J63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="9:10">
+      <c r="I65" t="s">
+        <v>116</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/twitter_data/retweeted_users.xlsx
+++ b/twitter_data/retweeted_users.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25306"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elan/Github/REU_scripts/twitter_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15300"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="15300"/>
   </bookViews>
   <sheets>
     <sheet name="Retweeted User Info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="118">
   <si>
     <t>User ID</t>
   </si>
@@ -370,6 +375,9 @@
   </si>
   <si>
     <t>non-profits</t>
+  </si>
+  <si>
+    <t>Average of Highly Retweeted Tweets per User Category</t>
   </si>
 </sst>
 </file>
@@ -457,6 +465,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -876,11 +889,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2124980648"/>
-        <c:axId val="-2124649496"/>
+        <c:axId val="-2004285088"/>
+        <c:axId val="-2046030288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2124980648"/>
+        <c:axId val="-2004285088"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -911,12 +924,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124649496"/>
+        <c:crossAx val="-2046030288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124649496"/>
+        <c:axId val="-2046030288"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -947,7 +960,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124980648"/>
+        <c:crossAx val="-2004285088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1027,6 +1040,13 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1034,6 +1054,11 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1164,6 +1189,13 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1171,6 +1203,11 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1641,13 +1678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
-      <selection activeCell="F9" sqref="F2:F9"/>
+    <sheetView tabSelected="1" topLeftCell="E32" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
@@ -1655,7 +1692,7 @@
     <col min="6" max="6" width="73.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1678,7 +1715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>771083455</v>
       </c>
@@ -1701,7 +1738,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3">
         <v>441283</v>
       </c>
@@ -1715,7 +1752,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4909772888</v>
       </c>
@@ -1738,7 +1775,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3328803514</v>
       </c>
@@ -1761,7 +1798,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>18369812</v>
       </c>
@@ -1784,7 +1821,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D7">
         <v>618963</v>
       </c>
@@ -1798,7 +1835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>618963</v>
       </c>
@@ -1812,7 +1849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2725582296</v>
       </c>
@@ -1835,7 +1872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>2961</v>
       </c>
@@ -1849,7 +1886,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>284422688</v>
       </c>
@@ -1872,7 +1909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>418395156</v>
       </c>
@@ -1895,7 +1932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D13">
         <v>12074</v>
       </c>
@@ -1909,7 +1946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>858139849</v>
       </c>
@@ -1932,7 +1969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>187397747</v>
       </c>
@@ -1955,7 +1992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>40578249</v>
       </c>
@@ -1978,7 +2015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>11059232</v>
       </c>
@@ -2001,7 +2038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>42993167</v>
       </c>
@@ -2024,7 +2061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15614141</v>
       </c>
@@ -2047,7 +2084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2189757642</v>
       </c>
@@ -2070,7 +2107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4852323040</v>
       </c>
@@ -2093,7 +2130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1898844277</v>
       </c>
@@ -2116,7 +2153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4785459269</v>
       </c>
@@ -2139,7 +2176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1465025299</v>
       </c>
@@ -2162,7 +2199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>29359583</v>
       </c>
@@ -2185,7 +2222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1636044792</v>
       </c>
@@ -2208,7 +2245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>299370086</v>
       </c>
@@ -2231,7 +2268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3020075953</v>
       </c>
@@ -2254,7 +2291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D29">
         <v>10371</v>
       </c>
@@ -2268,7 +2305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D30">
         <v>10371</v>
       </c>
@@ -2282,7 +2319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3317668073</v>
       </c>
@@ -2305,7 +2342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4293803952</v>
       </c>
@@ -2328,7 +2365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>541076667</v>
       </c>
@@ -2351,7 +2388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D34">
         <v>2795</v>
       </c>
@@ -2365,7 +2402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1927092534</v>
       </c>
@@ -2393,8 +2430,11 @@
       <c r="J35" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="M35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D36">
         <v>9137</v>
       </c>
@@ -2414,8 +2454,20 @@
         <f>COUNTIF(C2:C61,I36)</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="M36" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36">
+        <v>1.245980707E-2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>115</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>270106571</v>
       </c>
@@ -2444,8 +2496,20 @@
         <f t="shared" ref="J37:J39" si="0">COUNTIF(C3:C62,I37)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="M37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N37">
+        <v>4.807692308E-2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D38">
         <v>588251</v>
       </c>
@@ -2465,8 +2529,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="M38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N38">
+        <v>4.761904762E-2</v>
+      </c>
+      <c r="O38" t="s">
+        <v>116</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D39">
         <v>588251</v>
       </c>
@@ -2486,8 +2562,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="M39" t="s">
+        <v>90</v>
+      </c>
+      <c r="N39">
+        <v>2.631578947E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>86527966</v>
       </c>
@@ -2516,7 +2598,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>293645013</v>
       </c>
@@ -2539,7 +2621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>803669304</v>
       </c>
@@ -2562,7 +2644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3219100369</v>
       </c>
@@ -2585,7 +2667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D44">
         <v>26443</v>
       </c>
@@ -2599,7 +2681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4093545143</v>
       </c>
@@ -2622,7 +2704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2898339167</v>
       </c>
@@ -2645,7 +2727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4909245272</v>
       </c>
@@ -2668,7 +2750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>129956940</v>
       </c>
@@ -2691,7 +2773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1347362516</v>
       </c>
@@ -2714,7 +2796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>51177440</v>
       </c>
@@ -2731,7 +2813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2989669784</v>
       </c>
@@ -2754,7 +2836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D52">
         <v>31173</v>
       </c>
@@ -2768,7 +2850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>784890702</v>
       </c>
@@ -2791,7 +2873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D54">
         <v>23385</v>
       </c>
@@ -2805,7 +2887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1314149166</v>
       </c>
@@ -2828,7 +2910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4543648046</v>
       </c>
@@ -2851,7 +2933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>140710131</v>
       </c>
@@ -2874,7 +2956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1126930310</v>
       </c>
@@ -2903,7 +2985,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>230341137</v>
       </c>
@@ -2932,7 +3014,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>445246441</v>
       </c>
@@ -2961,7 +3043,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3226602412</v>
       </c>
@@ -2990,7 +3072,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I62" t="s">
         <v>90</v>
       </c>
@@ -2998,7 +3080,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I63" t="s">
         <v>115</v>
       </c>
@@ -3006,7 +3088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I64" t="s">
         <v>16</v>
       </c>
@@ -3014,7 +3096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="9:10">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I65" t="s">
         <v>116</v>
       </c>
@@ -3026,10 +3108,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/twitter_data/retweeted_users.xlsx
+++ b/twitter_data/retweeted_users.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elan/Github/REU_scripts/twitter_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="15300"/>
+    <workbookView xWindow="1940" yWindow="1340" windowWidth="25360" windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="Retweeted User Info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="120">
   <si>
     <t>User ID</t>
   </si>
@@ -368,23 +363,29 @@
     <t>Number</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>commercial_growers</t>
   </si>
   <si>
     <t>non-profits</t>
   </si>
   <si>
-    <t>Average of Highly Retweeted Tweets per User Category</t>
+    <t>O2Vapes</t>
+  </si>
+  <si>
+    <t>change to shops</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +409,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -426,7 +434,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -442,11 +450,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -454,6 +496,22 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -461,15 +519,26 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -889,11 +958,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2004285088"/>
-        <c:axId val="-2046030288"/>
+        <c:axId val="-2124980648"/>
+        <c:axId val="-2124649496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2004285088"/>
+        <c:axId val="-2124980648"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -924,12 +993,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2046030288"/>
+        <c:crossAx val="-2124649496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2046030288"/>
+        <c:axId val="-2124649496"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -960,7 +1029,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2004285088"/>
+        <c:crossAx val="-2124980648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1040,13 +1109,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1054,11 +1116,6 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1087,16 +1144,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>31.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,13 +1246,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1203,11 +1253,6 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1302,14 +1347,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -1332,16 +1377,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1678,21 +1723,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E32" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="6" max="6" width="73.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1715,11 +1761,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>771083455</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
@@ -1737,8 +1783,11 @@
       <c r="G2">
         <v>1739</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="D3">
         <v>441283</v>
       </c>
@@ -1752,7 +1801,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>4909772888</v>
       </c>
@@ -1774,12 +1823,15 @@
       <c r="G4">
         <v>1107</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3328803514</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
@@ -1798,7 +1850,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>18369812</v>
       </c>
@@ -1821,7 +1873,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="D7">
         <v>618963</v>
       </c>
@@ -1835,7 +1887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="D8">
         <v>618963</v>
       </c>
@@ -1849,7 +1901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>2725582296</v>
       </c>
@@ -1872,7 +1924,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="D10">
         <v>2961</v>
       </c>
@@ -1886,7 +1938,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>284422688</v>
       </c>
@@ -1909,7 +1961,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>418395156</v>
       </c>
@@ -1932,7 +1984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="D13">
         <v>12074</v>
       </c>
@@ -1946,7 +1998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>858139849</v>
       </c>
@@ -1969,7 +2021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>187397747</v>
       </c>
@@ -1992,7 +2044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>40578249</v>
       </c>
@@ -2015,7 +2067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>11059232</v>
       </c>
@@ -2038,7 +2090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>42993167</v>
       </c>
@@ -2061,7 +2113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>15614141</v>
       </c>
@@ -2084,7 +2136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2189757642</v>
       </c>
@@ -2107,7 +2159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>4852323040</v>
       </c>
@@ -2130,7 +2182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>1898844277</v>
       </c>
@@ -2153,7 +2205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>4785459269</v>
       </c>
@@ -2176,7 +2228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>1465025299</v>
       </c>
@@ -2199,7 +2251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>29359583</v>
       </c>
@@ -2222,7 +2274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>1636044792</v>
       </c>
@@ -2245,15 +2297,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>299370086</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D27">
         <v>51366</v>
@@ -2267,16 +2319,19 @@
       <c r="G27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>3020075953</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>10371</v>
@@ -2290,8 +2345,11 @@
       <c r="G28">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="D29">
         <v>10371</v>
       </c>
@@ -2305,7 +2363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="D30">
         <v>10371</v>
       </c>
@@ -2319,7 +2377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>3317668073</v>
       </c>
@@ -2342,7 +2400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>4293803952</v>
       </c>
@@ -2365,11 +2423,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>541076667</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C33" t="s">
@@ -2388,7 +2446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="D34">
         <v>2795</v>
       </c>
@@ -2402,15 +2460,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>1927092534</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D35">
         <v>9137</v>
@@ -2424,17 +2482,17 @@
       <c r="G35">
         <v>8</v>
       </c>
+      <c r="H35" t="s">
+        <v>118</v>
+      </c>
       <c r="I35" t="s">
         <v>2</v>
       </c>
       <c r="J35" t="s">
         <v>113</v>
       </c>
-      <c r="M35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10">
       <c r="D36">
         <v>9137</v>
       </c>
@@ -2452,26 +2510,14 @@
       </c>
       <c r="J36">
         <f>COUNTIF(C2:C61,I36)</f>
-        <v>31</v>
-      </c>
-      <c r="M36" t="s">
-        <v>8</v>
-      </c>
-      <c r="N36">
-        <v>1.245980707E-2</v>
-      </c>
-      <c r="O36" t="s">
-        <v>115</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>270106571</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C37" t="s">
@@ -2493,23 +2539,11 @@
         <v>11</v>
       </c>
       <c r="J37">
-        <f t="shared" ref="J37:J39" si="0">COUNTIF(C3:C62,I37)</f>
-        <v>5</v>
-      </c>
-      <c r="M37" t="s">
-        <v>11</v>
-      </c>
-      <c r="N37">
-        <v>4.807692308E-2</v>
-      </c>
-      <c r="O37" t="s">
-        <v>16</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J37:J43" si="0">COUNTIF(C3:C62,I37)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="D38">
         <v>588251</v>
       </c>
@@ -2529,20 +2563,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M38" t="s">
-        <v>69</v>
-      </c>
-      <c r="N38">
-        <v>4.761904762E-2</v>
-      </c>
-      <c r="O38" t="s">
-        <v>116</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:10">
       <c r="D39">
         <v>588251</v>
       </c>
@@ -2560,16 +2582,10 @@
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M39" t="s">
-        <v>90</v>
-      </c>
-      <c r="N39">
-        <v>2.631578947E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>86527966</v>
       </c>
@@ -2595,10 +2611,11 @@
         <v>114</v>
       </c>
       <c r="J40">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>293645013</v>
       </c>
@@ -2620,8 +2637,15 @@
       <c r="G41">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>115</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>803669304</v>
       </c>
@@ -2643,8 +2667,15 @@
       <c r="G42">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>3219100369</v>
       </c>
@@ -2666,8 +2697,15 @@
       <c r="G43">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>119</v>
+      </c>
+      <c r="J43">
+        <f>SUM(J36:J42)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="D44">
         <v>26443</v>
       </c>
@@ -2681,15 +2719,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>4093545143</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D45">
         <v>3378</v>
@@ -2703,8 +2741,11 @@
       <c r="G45">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>2898339167</v>
       </c>
@@ -2727,7 +2768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>4909245272</v>
       </c>
@@ -2750,7 +2791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>129956940</v>
       </c>
@@ -2773,11 +2814,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>1347362516</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C49" t="s">
@@ -2796,7 +2837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>51177440</v>
       </c>
@@ -2813,7 +2854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>2989669784</v>
       </c>
@@ -2836,7 +2877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="D52">
         <v>31173</v>
       </c>
@@ -2850,7 +2891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>784890702</v>
       </c>
@@ -2873,7 +2914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="D54">
         <v>23385</v>
       </c>
@@ -2887,7 +2928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>1314149166</v>
       </c>
@@ -2910,7 +2951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>4543648046</v>
       </c>
@@ -2933,7 +2974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>140710131</v>
       </c>
@@ -2956,7 +2997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>1126930310</v>
       </c>
@@ -2985,7 +3026,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>230341137</v>
       </c>
@@ -3014,11 +3055,11 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>445246441</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C60" t="s">
@@ -3043,7 +3084,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>3226602412</v>
       </c>
@@ -3072,7 +3113,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="I62" t="s">
         <v>90</v>
       </c>
@@ -3080,15 +3121,24 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="I63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J63">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
+      <c r="B64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" t="s">
+        <v>118</v>
+      </c>
       <c r="I64" t="s">
         <v>16</v>
       </c>
@@ -3096,9 +3146,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:10">
       <c r="I65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3108,5 +3158,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>